--- a/Agrovet.Samadhan.Grader/testData/Book1.xlsx
+++ b/Agrovet.Samadhan.Grader/testData/Book1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\testing.engineer\eclipse-workspace\Agrovet.Samadhan.Grader\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\testing.engineer\git\Grader\Agrovet.Samadhan.Grader\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20EC46FD-0427-4F95-B8DF-754F31BC5D44}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76321D8E-B5A4-4374-A1E6-56F54D162D8C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23640" windowHeight="12930" xr2:uid="{F99DDD6B-DC0A-4C27-B8E5-578350DAA813}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>9354029690</t>
   </si>
@@ -79,19 +79,58 @@
   </si>
   <si>
     <t>9354029698</t>
+  </si>
+  <si>
+    <t>smallBunches</t>
+  </si>
+  <si>
+    <t>bouquetBunches</t>
+  </si>
+  <si>
+    <t>looseFruit</t>
+  </si>
+  <si>
+    <t>RottenBunches</t>
+  </si>
+  <si>
+    <t>underRipeBunches</t>
+  </si>
+  <si>
+    <t>unripeBunches</t>
+  </si>
+  <si>
+    <t>damagedBunches</t>
+  </si>
+  <si>
+    <t>longStalkBunches</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF6A3E3E"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -114,9 +153,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71603509-7BFE-436F-8C7C-71A8759CD5E1}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,17 +555,91 @@
         <v>17</v>
       </c>
     </row>
+    <row r="10" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="f8021fd8-9dec-452d-b422-3220fa843c88" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -717,26 +831,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="f8021fd8-9dec-452d-b422-3220fa843c88" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0E7BE6D-8822-4CB7-AC74-AA35705893DC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAA47C05-0D15-45B2-B49A-3B2ED4A1A3E2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f8021fd8-9dec-452d-b422-3220fa843c88"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -760,9 +865,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAA47C05-0D15-45B2-B49A-3B2ED4A1A3E2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0E7BE6D-8822-4CB7-AC74-AA35705893DC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f8021fd8-9dec-452d-b422-3220fa843c88"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Agrovet.Samadhan.Grader/testData/Book1.xlsx
+++ b/Agrovet.Samadhan.Grader/testData/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\testing.engineer\git\Grader\Agrovet.Samadhan.Grader\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76321D8E-B5A4-4374-A1E6-56F54D162D8C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{556D0194-8F60-4CAE-A28B-D26C12FB1C0F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23640" windowHeight="12930" xr2:uid="{F99DDD6B-DC0A-4C27-B8E5-578350DAA813}"/>
   </bookViews>
@@ -54,12 +54,6 @@
     <t>Emergency</t>
   </si>
   <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
     <t>fourthOtp</t>
   </si>
   <si>
@@ -112,6 +106,12 @@
   </si>
   <si>
     <t>ok</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>29</t>
   </si>
 </sst>
 </file>
@@ -474,7 +474,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,7 +485,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -517,7 +517,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -533,31 +533,31 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>1</v>
@@ -565,7 +565,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>4</v>
@@ -573,7 +573,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>6</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>7</v>
@@ -589,7 +589,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>4</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>1</v>
@@ -605,7 +605,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>6</v>
@@ -613,18 +613,18 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
         <v>26</v>
-      </c>
-      <c r="B18" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
